--- a/Team-Data/2007-08/4-5-2007-08.xlsx
+++ b/Team-Data/2007-08/4-5-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="n">
         <v>41</v>
       </c>
       <c r="G2" t="n">
-        <v>0.468</v>
+        <v>0.461</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -684,7 +751,7 @@
         <v>36.2</v>
       </c>
       <c r="J2" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="K2" t="n">
         <v>0.454</v>
@@ -699,7 +766,7 @@
         <v>0.358</v>
       </c>
       <c r="O2" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P2" t="n">
         <v>27.2</v>
@@ -726,10 +793,10 @@
         <v>7.3</v>
       </c>
       <c r="X2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z2" t="n">
         <v>20.6</v>
@@ -738,13 +805,13 @@
         <v>21.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -762,7 +829,7 @@
         <v>22</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>16</v>
@@ -774,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
         <v>5</v>
@@ -798,22 +865,22 @@
         <v>11</v>
       </c>
       <c r="AV2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW2" t="n">
         <v>15</v>
       </c>
       <c r="AX2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ2" t="n">
         <v>11</v>
       </c>
       <c r="BA2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
         <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>0.803</v>
+        <v>0.8</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
@@ -866,10 +933,10 @@
         <v>36.4</v>
       </c>
       <c r="J3" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.475</v>
+        <v>0.476</v>
       </c>
       <c r="L3" t="n">
         <v>7.2</v>
@@ -881,25 +948,25 @@
         <v>0.377</v>
       </c>
       <c r="O3" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="P3" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="Q3" t="n">
         <v>0.772</v>
       </c>
       <c r="R3" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S3" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="U3" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V3" t="n">
         <v>15.1</v>
@@ -923,10 +990,10 @@
         <v>100.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -959,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
         <v>9</v>
@@ -971,10 +1038,10 @@
         <v>24</v>
       </c>
       <c r="AS3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -989,10 +1056,10 @@
         <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
         <v>8</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" t="n">
         <v>29</v>
       </c>
       <c r="F4" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" t="n">
-        <v>0.377</v>
+        <v>0.382</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1048,37 +1115,37 @@
         <v>35.8</v>
       </c>
       <c r="J4" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K4" t="n">
         <v>0.449</v>
       </c>
       <c r="L4" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O4" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P4" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.71</v>
+        <v>0.711</v>
       </c>
       <c r="R4" t="n">
         <v>10.8</v>
       </c>
       <c r="S4" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T4" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U4" t="n">
         <v>21.2</v>
@@ -1090,7 +1157,7 @@
         <v>7.6</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y4" t="n">
         <v>6</v>
@@ -1102,13 +1169,13 @@
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.09999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1123,13 +1190,13 @@
         <v>4</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1144,10 +1211,10 @@
         <v>20</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
         <v>21</v>
@@ -1162,10 +1229,10 @@
         <v>17</v>
       </c>
       <c r="AV4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
@@ -1180,7 +1247,7 @@
         <v>16</v>
       </c>
       <c r="BB4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" t="n">
-        <v>0.395</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1236,31 +1303,31 @@
         <v>0.432</v>
       </c>
       <c r="L5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M5" t="n">
         <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O5" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R5" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S5" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U5" t="n">
         <v>21.9</v>
@@ -1269,7 +1336,7 @@
         <v>14.5</v>
       </c>
       <c r="W5" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
         <v>5.2</v>
@@ -1281,28 +1348,28 @@
         <v>21.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1323,28 +1390,28 @@
         <v>14</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU5" t="n">
         <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AW5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" t="n">
         <v>42</v>
       </c>
       <c r="F6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" t="n">
-        <v>0.545</v>
+        <v>0.553</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J6" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L6" t="n">
         <v>6.9</v>
@@ -1424,19 +1491,19 @@
         <v>19.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O6" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.719</v>
+        <v>0.72</v>
       </c>
       <c r="R6" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="S6" t="n">
         <v>31.2</v>
@@ -1445,7 +1512,7 @@
         <v>44.4</v>
       </c>
       <c r="U6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
         <v>14</v>
@@ -1466,13 +1533,13 @@
         <v>20.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1496,7 +1563,7 @@
         <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
         <v>12</v>
@@ -1508,7 +1575,7 @@
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>4.5</v>
       </c>
       <c r="AD7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE7" t="n">
         <v>9</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>10</v>
@@ -1666,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1690,7 +1757,7 @@
         <v>7</v>
       </c>
       <c r="AP7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ7" t="n">
         <v>2</v>
@@ -1702,7 +1769,7 @@
         <v>6</v>
       </c>
       <c r="AT7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU7" t="n">
         <v>21</v>
@@ -1717,7 +1784,7 @@
         <v>10</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ7" t="n">
         <v>23</v>
@@ -1726,7 +1793,7 @@
         <v>13</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" t="n">
         <v>46</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>0.605</v>
+        <v>0.613</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
@@ -1776,7 +1843,7 @@
         <v>40.1</v>
       </c>
       <c r="J8" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>0.468</v>
@@ -1785,19 +1852,19 @@
         <v>6.9</v>
       </c>
       <c r="M8" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.357</v>
+        <v>0.359</v>
       </c>
       <c r="O8" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="P8" t="n">
         <v>30.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R8" t="n">
         <v>11.4</v>
@@ -1809,10 +1876,10 @@
         <v>43.9</v>
       </c>
       <c r="U8" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="V8" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W8" t="n">
         <v>9.300000000000001</v>
@@ -1821,7 +1888,7 @@
         <v>6.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z8" t="n">
         <v>21.1</v>
@@ -1830,25 +1897,25 @@
         <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.1</v>
+        <v>110</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1857,16 +1924,16 @@
         <v>2</v>
       </c>
       <c r="AK8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT8" t="n">
         <v>5</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1899,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ8" t="n">
         <v>17</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2078,7 +2145,7 @@
         <v>16</v>
       </c>
       <c r="AX9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>2.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2236,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ10" t="n">
         <v>19</v>
@@ -2263,7 +2330,7 @@
         <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2275,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
@@ -2394,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
         <v>17</v>
@@ -2403,7 +2470,7 @@
         <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL11" t="n">
         <v>11</v>
@@ -2442,7 +2509,7 @@
         <v>14</v>
       </c>
       <c r="AX11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY11" t="n">
         <v>12</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2585,7 +2652,7 @@
         <v>3</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>3</v>
@@ -2600,7 +2667,7 @@
         <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ12" t="n">
         <v>9</v>
@@ -2612,7 +2679,7 @@
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2627,7 +2694,7 @@
         <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2800,7 +2867,7 @@
         <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW13" t="n">
         <v>19</v>
@@ -2815,7 +2882,7 @@
         <v>18</v>
       </c>
       <c r="BA13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2940,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,10 +3189,10 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
         <v>13</v>
@@ -3179,10 +3246,10 @@
         <v>4</v>
       </c>
       <c r="BA15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-9</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3710,10 +3777,10 @@
         <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -3760,34 +3827,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" t="n">
         <v>45</v>
       </c>
       <c r="G19" t="n">
-        <v>0.416</v>
+        <v>0.408</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J19" t="n">
         <v>78.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M19" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N19" t="n">
         <v>0.347</v>
@@ -3796,10 +3863,10 @@
         <v>20.1</v>
       </c>
       <c r="P19" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.732</v>
+        <v>0.73</v>
       </c>
       <c r="R19" t="n">
         <v>11.4</v>
@@ -3814,7 +3881,7 @@
         <v>23.3</v>
       </c>
       <c r="V19" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W19" t="n">
         <v>6.3</v>
@@ -3829,19 +3896,19 @@
         <v>22.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB19" t="n">
         <v>95.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-4.8</v>
+        <v>-5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
@@ -3850,7 +3917,7 @@
         <v>21</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI19" t="n">
         <v>28</v>
@@ -3859,7 +3926,7 @@
         <v>25</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
         <v>20</v>
@@ -3880,7 +3947,7 @@
         <v>22</v>
       </c>
       <c r="AR19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS19" t="n">
         <v>13</v>
@@ -3892,7 +3959,7 @@
         <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>25</v>
@@ -3901,13 +3968,13 @@
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>3</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-7</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4265,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ21" t="n">
         <v>19</v>
@@ -4274,7 +4341,7 @@
         <v>19</v>
       </c>
       <c r="BB21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" t="n">
         <v>28</v>
       </c>
       <c r="G22" t="n">
-        <v>0.632</v>
+        <v>0.627</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4324,7 +4391,7 @@
         <v>37.1</v>
       </c>
       <c r="J22" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K22" t="n">
         <v>0.473</v>
@@ -4333,7 +4400,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
         <v>0.387</v>
@@ -4342,10 +4409,10 @@
         <v>20.5</v>
       </c>
       <c r="P22" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.727</v>
+        <v>0.725</v>
       </c>
       <c r="R22" t="n">
         <v>9.4</v>
@@ -4354,7 +4421,7 @@
         <v>32.5</v>
       </c>
       <c r="T22" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U22" t="n">
         <v>20.4</v>
@@ -4381,10 +4448,10 @@
         <v>104.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AE22" t="n">
         <v>9</v>
@@ -4417,7 +4484,7 @@
         <v>4</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
         <v>3</v>
@@ -4432,10 +4499,10 @@
         <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV22" t="n">
         <v>12</v>
@@ -4447,7 +4514,7 @@
         <v>26</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ22" t="n">
         <v>15</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" t="n">
         <v>39</v>
       </c>
       <c r="F23" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" t="n">
-        <v>0.506</v>
+        <v>0.513</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L23" t="n">
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="N23" t="n">
         <v>0.317</v>
@@ -4530,16 +4597,16 @@
         <v>0.71</v>
       </c>
       <c r="R23" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S23" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T23" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U23" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
         <v>14.5</v>
@@ -4560,28 +4627,28 @@
         <v>21</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
         <v>17</v>
@@ -4605,7 +4672,7 @@
         <v>10</v>
       </c>
       <c r="AQ23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR23" t="n">
         <v>3</v>
@@ -4614,10 +4681,10 @@
         <v>28</v>
       </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV23" t="n">
         <v>15</v>
@@ -4638,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="BB23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>6</v>
@@ -4760,7 +4827,7 @@
         <v>6</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4778,10 +4845,10 @@
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP24" t="n">
         <v>21</v>
@@ -4796,7 +4863,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>-1.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>16</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
         <v>16</v>
@@ -4948,7 +5015,7 @@
         <v>27</v>
       </c>
       <c r="AJ25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK25" t="n">
         <v>20</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" t="n">
         <v>40</v>
       </c>
       <c r="G26" t="n">
-        <v>0.474</v>
+        <v>0.467</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,7 +5119,7 @@
         <v>36.9</v>
       </c>
       <c r="J26" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K26" t="n">
         <v>0.462</v>
@@ -5067,25 +5134,25 @@
         <v>0.372</v>
       </c>
       <c r="O26" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="P26" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.798</v>
+        <v>0.797</v>
       </c>
       <c r="R26" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S26" t="n">
         <v>30.1</v>
       </c>
       <c r="T26" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U26" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V26" t="n">
         <v>16</v>
@@ -5094,7 +5161,7 @@
         <v>7.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y26" t="n">
         <v>5.5</v>
@@ -5106,13 +5173,13 @@
         <v>23.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.5</v>
+        <v>102.3</v>
       </c>
       <c r="AC26" t="n">
         <v>-2</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5130,7 +5197,7 @@
         <v>14</v>
       </c>
       <c r="AJ26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
         <v>10</v>
@@ -5157,7 +5224,7 @@
         <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT26" t="n">
         <v>27</v>
@@ -5172,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY26" t="n">
         <v>27</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>4.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>4</v>
@@ -5306,10 +5373,10 @@
         <v>4</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
@@ -5339,10 +5406,10 @@
         <v>26</v>
       </c>
       <c r="AS27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU27" t="n">
         <v>20</v>
@@ -5354,7 +5421,7 @@
         <v>23</v>
       </c>
       <c r="AX27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY27" t="n">
         <v>11</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5488,7 +5555,7 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5521,7 +5588,7 @@
         <v>10</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" t="n">
         <v>38</v>
       </c>
       <c r="F29" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="n">
-        <v>0.494</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5610,22 +5677,22 @@
         <v>18</v>
       </c>
       <c r="N29" t="n">
-        <v>0.394</v>
+        <v>0.398</v>
       </c>
       <c r="O29" t="n">
         <v>16.4</v>
       </c>
       <c r="P29" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="R29" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S29" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
         <v>40.1</v>
@@ -5646,31 +5713,31 @@
         <v>4</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>16</v>
       </c>
       <c r="AF29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5679,7 +5746,7 @@
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL29" t="n">
         <v>10</v>
@@ -5688,7 +5755,7 @@
         <v>14</v>
       </c>
       <c r="AN29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO29" t="n">
         <v>27</v>
@@ -5730,10 +5797,10 @@
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -5894,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
@@ -5903,7 +5970,7 @@
         <v>23</v>
       </c>
       <c r="AY30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>30</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="n">
         <v>37</v>
       </c>
       <c r="G31" t="n">
-        <v>0.519</v>
+        <v>0.513</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
@@ -5965,7 +6032,7 @@
         <v>81.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L31" t="n">
         <v>6.9</v>
@@ -5974,31 +6041,31 @@
         <v>19.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O31" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P31" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
       <c r="R31" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S31" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T31" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="U31" t="n">
         <v>19.5</v>
       </c>
       <c r="V31" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W31" t="n">
         <v>7.8</v>
@@ -6010,19 +6077,19 @@
         <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB31" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6034,10 +6101,10 @@
         <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
         <v>16</v>
@@ -6070,7 +6137,7 @@
         <v>26</v>
       </c>
       <c r="AT31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6088,7 +6155,7 @@
         <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA31" t="n">
         <v>22</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-5-2007-08</t>
+          <t>2008-04-05</t>
         </is>
       </c>
     </row>
